--- a/FamilyOfficeEntityDataSampleV1.1.xlsx
+++ b/FamilyOfficeEntityDataSampleV1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" tabRatio="880" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" tabRatio="880"/>
   </bookViews>
   <sheets>
     <sheet name="Client Profile" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,14 @@
     <sheet name="Activity" sheetId="17" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Client Profile'!$A$1:$L$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Client Profile'!$A$1:$M$23</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="765">
   <si>
     <t>ClientID</t>
   </si>
@@ -392,9 +392,6 @@
     <t>Family_Member_ID</t>
   </si>
   <si>
-    <t>Own</t>
-  </si>
-  <si>
     <t>Fam-006</t>
   </si>
   <si>
@@ -2310,6 +2307,24 @@
   </si>
   <si>
     <t>$ value Net worth</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
   </si>
 </sst>
 </file>
@@ -2500,11 +2515,11 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2807,21 +2822,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="45.85546875" customWidth="1"/>
+    <col min="6" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2847,19 +2862,22 @@
         <v>5</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M1" s="29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2884,20 +2902,23 @@
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>2500000</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M2" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2922,75 +2943,81 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>3000000</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="D4" s="2">
         <v>31332</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="7">
+        <v>1200000</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J4" s="7">
-        <v>1200000</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="D5" s="2">
         <v>28640</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -2998,705 +3025,762 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2800000</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="J5" s="7">
-        <v>2800000</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="D6" s="6">
         <v>33090</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="7">
+        <v>900000</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J6" s="7">
-        <v>900000</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D7" s="6">
         <v>25922</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="J7" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="D8" s="6">
         <v>30117</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="J8" s="7">
-        <v>3500000</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="D9" s="6">
         <v>34950</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="7">
+        <v>600000</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="J9" s="7">
-        <v>600000</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="D10" s="6">
         <v>31861</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>2000000</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="D11" s="6">
         <v>28074</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="J11" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="D12" s="6">
         <v>32342</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K12" s="7">
+        <v>2300000</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="J12" s="7">
-        <v>2300000</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="D13" s="6">
         <v>33697</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="K13" s="7">
+        <v>800000</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="J13" s="7">
-        <v>800000</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="D14" s="6">
         <v>29265</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2700000</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2700000</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="D15" s="6">
         <v>36088</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="7">
+        <v>100000</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="J15" s="7">
-        <v>100000</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="D16" s="6">
         <v>27583</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="J16" s="7">
+        <v>460</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="K16" s="7">
         <v>3200000</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="D17" s="6">
         <v>32688</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G17" s="2">
         <v>2</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="K17" s="7">
+        <v>1600000</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="J17" s="7">
-        <v>1600000</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="D18" s="6">
         <v>35167</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18" s="7">
+        <v>400000</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="J18" s="7">
-        <v>400000</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="D19" s="6">
         <v>30564</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="K19" s="7">
+        <v>1900000</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="J19" s="7">
-        <v>1900000</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="D20" s="6">
         <v>26618</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="K20" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="J20" s="7">
-        <v>2500000</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="D21" s="6">
         <v>33107</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="K21" s="7">
+        <v>700000</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="J21" s="7">
-        <v>700000</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="D22" s="6">
         <v>31478</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>2600000</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D23" s="6">
         <v>28880</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K23" s="7">
+        <v>3300000</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="J23" s="7">
-        <v>3300000</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>385</v>
+      <c r="M23" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L23"/>
+  <autoFilter ref="A1:M23"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
@@ -3719,51 +3803,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>314</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C2" s="23">
         <v>100000</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>323</v>
-      </c>
       <c r="G2" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H2" s="25">
         <v>7.4999999999999997E-3</v>
@@ -3771,22 +3855,22 @@
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="23">
         <v>80000</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="25">
@@ -3795,25 +3879,25 @@
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C4" s="23">
         <v>60000</v>
       </c>
       <c r="D4" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>326</v>
-      </c>
       <c r="F4" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H4" s="25">
         <v>0.01</v>
@@ -3821,25 +3905,25 @@
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C5" s="23">
         <v>80000</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H5" s="25">
         <v>2.5000000000000001E-3</v>
@@ -3847,7 +3931,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -3859,7 +3943,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -3871,7 +3955,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3883,7 +3967,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -3895,7 +3979,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -4031,13 +4115,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>210</v>
-      </c>
       <c r="C1" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>86</v>
@@ -4046,7 +4130,7 @@
         <v>87</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>88</v>
@@ -4060,19 +4144,19 @@
         <v>89</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="16">
         <v>44202</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>116</v>
@@ -4084,7 +4168,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="16">
         <v>44273</v>
@@ -4093,10 +4177,10 @@
         <v>29</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>116</v>
@@ -4108,17 +4192,17 @@
         <v>91</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>94</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>116</v>
@@ -4129,22 +4213,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="16">
         <v>44344</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>116</v>
@@ -4153,20 +4237,20 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="16">
         <v>44415</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>116</v>
@@ -4175,22 +4259,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="16">
         <v>44486</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>116</v>
@@ -4199,22 +4283,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="16">
         <v>44334</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>116</v>
@@ -4223,20 +4307,20 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="16">
         <v>44405</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>116</v>
@@ -4245,22 +4329,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" s="16">
         <v>44476</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>116</v>
@@ -4269,22 +4353,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="16">
         <v>44547</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>116</v>
@@ -4293,22 +4377,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" s="16">
         <v>44618</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>116</v>
@@ -4317,20 +4401,20 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="16">
         <v>44689</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>116</v>
@@ -4339,22 +4423,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" s="16">
         <v>44760</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>116</v>
@@ -4363,22 +4447,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="16">
         <v>44831</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>259</v>
-      </c>
       <c r="F15" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>116</v>
@@ -4387,22 +4471,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="16">
         <v>44902</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>116</v>
@@ -4411,20 +4495,20 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16">
         <v>44608</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>116</v>
@@ -4433,22 +4517,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C18" s="16">
         <v>44679</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>116</v>
@@ -4457,22 +4541,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C19" s="16">
         <v>44750</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>116</v>
@@ -4481,20 +4565,20 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="16">
         <v>44942</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>116</v>
@@ -4503,22 +4587,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="16">
         <v>45011</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>116</v>
@@ -4527,22 +4611,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="16">
         <v>45080</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>116</v>
@@ -4551,22 +4635,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="C23" s="16">
         <v>45149</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>116</v>
@@ -4575,7 +4659,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="16"/>
@@ -4587,7 +4671,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="16"/>
@@ -4599,7 +4683,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="16"/>
@@ -4611,7 +4695,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="16"/>
@@ -4623,7 +4707,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="16"/>
@@ -4635,7 +4719,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="16"/>
@@ -4647,7 +4731,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="16"/>
@@ -4659,7 +4743,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="16"/>
@@ -4671,7 +4755,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="16"/>
@@ -4683,7 +4767,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="16"/>
@@ -4785,162 +4869,162 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
+        <v>755</v>
+      </c>
+      <c r="C20" t="s">
         <v>756</v>
-      </c>
-      <c r="C20" t="s">
-        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -4965,660 +5049,660 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>366</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C22" s="2">
         <v>9</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C31" s="2">
         <v>12</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C33" s="2">
         <v>15</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2">
         <v>18</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2">
         <v>21</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C44" s="2">
         <v>22</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -5630,8 +5714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5673,8 +5757,8 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>755</v>
+      <c r="C2" s="32" t="s">
+        <v>754</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>104</v>
@@ -5766,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>120</v>
+        <v>754</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>11</v>
@@ -5783,7 +5867,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -5806,7 +5890,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -5829,53 +5913,53 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>754</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="F9" s="6">
         <v>33090</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>754</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="F10" s="6">
         <v>31861</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
@@ -5884,205 +5968,205 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F11" s="6">
         <v>32469</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F12" s="6">
         <v>40424</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F13" s="6">
         <v>42199</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>120</v>
+        <v>754</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="F14" s="6">
         <v>33697</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B15" s="2">
         <v>15</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>120</v>
+        <v>754</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="F15" s="6">
         <v>27583</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F16" s="6">
         <v>29106</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F17" s="6">
         <v>38545</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F18" s="6">
         <v>39782</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B19" s="2">
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>120</v>
+        <v>754</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="F19" s="6">
         <v>30564</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
@@ -6091,141 +6175,141 @@
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F20" s="6">
         <v>43353</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B21" s="2">
         <v>21</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>120</v>
+        <v>754</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="F21" s="6">
         <v>31478</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F22" s="6">
         <v>31912</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B23" s="2">
         <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>120</v>
+        <v>754</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F23" s="6">
         <v>28880</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B24" s="2">
         <v>22</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F24" s="6">
         <v>30015</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B25" s="2">
         <v>22</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F25" s="6">
         <v>39739</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -6263,13 +6347,13 @@
         <v>25</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>26</v>
@@ -6298,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>29</v>
@@ -6350,13 +6434,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="4">
         <v>750000</v>
@@ -6378,10 +6462,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="4">
         <v>30000</v>
@@ -6391,7 +6475,7 @@
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="16">
         <v>44486</v>
@@ -6400,13 +6484,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="4">
         <v>4000000</v>
@@ -6418,7 +6502,7 @@
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="16">
         <v>44557</v>
@@ -6443,7 +6527,7 @@
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="16">
         <v>44263</v>
@@ -6470,7 +6554,7 @@
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="16">
         <v>44334</v>
@@ -6479,13 +6563,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="4">
         <v>200000</v>
@@ -6497,7 +6581,7 @@
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="16">
         <v>44405</v>
@@ -6507,10 +6591,10 @@
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="4">
         <v>15000</v>
@@ -6520,7 +6604,7 @@
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="16">
         <v>44476</v>
@@ -6530,10 +6614,10 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="4">
         <v>10000</v>
@@ -6545,7 +6629,7 @@
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="16">
         <v>44547</v>
@@ -6555,10 +6639,10 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="4">
         <v>20000</v>
@@ -6570,7 +6654,7 @@
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="16">
         <v>44618</v>
@@ -6579,13 +6663,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="4">
         <v>300000</v>
@@ -6597,7 +6681,7 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="16">
         <v>44689</v>
@@ -6607,10 +6691,10 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="4">
         <v>50000</v>
@@ -6620,7 +6704,7 @@
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="16">
         <v>44760</v>
@@ -6629,13 +6713,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="4">
         <v>7000000</v>
@@ -6647,7 +6731,7 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="16">
         <v>44831</v>
@@ -6657,10 +6741,10 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" s="4">
         <v>25000</v>
@@ -6672,7 +6756,7 @@
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="16">
         <v>44902</v>
@@ -6681,13 +6765,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="4">
         <v>5000000</v>
@@ -6697,7 +6781,7 @@
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="16">
         <v>44608</v>
@@ -6707,10 +6791,10 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G18" s="18">
         <v>60000</v>
@@ -6720,7 +6804,7 @@
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="16">
         <v>44679</v>
@@ -6730,10 +6814,10 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" s="18">
         <v>8000</v>
@@ -6745,7 +6829,7 @@
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="16">
         <v>44750</v>
@@ -6755,10 +6839,10 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G20" s="18">
         <v>15000</v>
@@ -6768,7 +6852,7 @@
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="16">
         <v>44942</v>
@@ -6778,10 +6862,10 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G21" s="18">
         <v>20000</v>
@@ -6791,7 +6875,7 @@
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B22" s="16">
         <v>45011</v>
@@ -6801,10 +6885,10 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" s="18">
         <v>12000</v>
@@ -6814,7 +6898,7 @@
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B23" s="16">
         <v>45080</v>
@@ -6824,10 +6908,10 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G23" s="18">
         <v>30000</v>
@@ -6837,7 +6921,7 @@
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B24" s="16">
         <v>45149</v>
@@ -6846,13 +6930,13 @@
         <v>2</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="18">
         <v>250000</v>
@@ -6862,7 +6946,7 @@
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B25" s="16">
         <v>44488</v>
@@ -6872,7 +6956,7 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>32</v>
@@ -6889,7 +6973,7 @@
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B26" s="16">
         <v>44557</v>
@@ -6902,7 +6986,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G26" s="18">
         <v>1800000</v>
@@ -6911,12 +6995,12 @@
         <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B27" s="16">
         <v>44626</v>
@@ -6926,10 +7010,10 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G27" s="18">
         <v>100000</v>
@@ -6943,7 +7027,7 @@
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B28" s="16">
         <v>44695</v>
@@ -6970,7 +7054,7 @@
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B29" s="16">
         <v>44764</v>
@@ -6980,10 +7064,10 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G29" s="18">
         <v>200000</v>
@@ -6997,7 +7081,7 @@
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B30" s="16">
         <v>44833</v>
@@ -7010,7 +7094,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G30" s="18">
         <v>1500000</v>
@@ -7019,12 +7103,12 @@
         <v>1</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B31" s="16">
         <v>44902</v>
@@ -7037,7 +7121,7 @@
         <v>31</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G31" s="18">
         <v>700000</v>
@@ -7051,7 +7135,7 @@
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B32" s="16">
         <v>44241</v>
@@ -7061,10 +7145,10 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G32" s="18">
         <v>1200000</v>
@@ -7078,7 +7162,7 @@
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B33" s="16">
         <v>44675</v>
@@ -7088,10 +7172,10 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G33" s="18">
         <v>400000</v>
@@ -7105,7 +7189,7 @@
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B34" s="16">
         <v>45109</v>
@@ -7118,7 +7202,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G34" s="18">
         <v>2000000</v>
@@ -7127,12 +7211,12 @@
         <v>1</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B35" s="16">
         <v>45178</v>
@@ -7145,7 +7229,7 @@
         <v>31</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G35" s="18">
         <v>600000</v>
@@ -7159,7 +7243,7 @@
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B36" s="16">
         <v>44517</v>
@@ -7169,10 +7253,10 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G36" s="18">
         <v>150000</v>
@@ -7186,7 +7270,7 @@
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B37" s="16">
         <v>44586</v>
@@ -7199,7 +7283,7 @@
         <v>31</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G37" s="18">
         <v>600000</v>
@@ -7213,7 +7297,7 @@
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B38" s="16">
         <v>45019</v>
@@ -7226,7 +7310,7 @@
         <v>29</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G38" s="18">
         <v>900000</v>
@@ -7235,12 +7319,12 @@
         <v>1</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B39" s="16">
         <v>45088</v>
@@ -7250,10 +7334,10 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G39" s="18">
         <v>80000</v>
@@ -7267,7 +7351,7 @@
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B40" s="16">
         <v>44427</v>
@@ -7280,7 +7364,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G40" s="18">
         <v>250000</v>
@@ -7294,7 +7378,7 @@
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B41" s="16">
         <v>44496</v>
@@ -7304,10 +7388,10 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G41" s="18">
         <v>150000</v>
@@ -7321,7 +7405,7 @@
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B42" s="16">
         <v>44565</v>
@@ -7334,7 +7418,7 @@
         <v>29</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G42" s="18">
         <v>1200000</v>
@@ -7343,12 +7427,12 @@
         <v>1</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B43" s="16">
         <v>44999</v>
@@ -7375,7 +7459,7 @@
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B44" s="16">
         <v>44338</v>
@@ -7385,10 +7469,10 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G44" s="18">
         <v>1500000</v>
@@ -7402,7 +7486,7 @@
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B45" s="16">
         <v>44772</v>
@@ -7412,10 +7496,10 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G45" s="18">
         <v>500000</v>
@@ -7429,7 +7513,7 @@
     </row>
     <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B46" s="16">
         <v>45206</v>
@@ -7442,7 +7526,7 @@
         <v>29</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G46" s="18">
         <v>2500000</v>
@@ -7451,12 +7535,12 @@
         <v>1</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B47" s="16">
         <v>45275</v>
@@ -7469,7 +7553,7 @@
         <v>31</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G47" s="18">
         <v>700000</v>
@@ -7483,7 +7567,7 @@
     </row>
     <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B48" s="16">
         <v>44614</v>
@@ -7493,10 +7577,10 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G48" s="18">
         <v>200000</v>
@@ -7510,7 +7594,7 @@
     </row>
     <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B49" s="16">
         <v>44683</v>
@@ -7523,7 +7607,7 @@
         <v>31</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G49" s="18">
         <v>400000</v>
@@ -7537,7 +7621,7 @@
     </row>
     <row r="50" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B50" s="16">
         <v>45117</v>
@@ -7550,7 +7634,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G50" s="18">
         <v>300000</v>
@@ -7559,12 +7643,12 @@
         <v>1</v>
       </c>
       <c r="I50" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B51" s="16">
         <v>45186</v>
@@ -7574,10 +7658,10 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G51" s="18">
         <v>50000</v>
@@ -7591,7 +7675,7 @@
     </row>
     <row r="52" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B52" s="16">
         <v>44525</v>
@@ -7604,7 +7688,7 @@
         <v>33</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G52" s="18">
         <v>200000</v>
@@ -7618,7 +7702,7 @@
     </row>
     <row r="53" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B53" s="16">
         <v>44594</v>
@@ -7628,10 +7712,10 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G53" s="18">
         <v>100000</v>
@@ -7645,7 +7729,7 @@
     </row>
     <row r="54" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B54" s="16">
         <v>45028</v>
@@ -7658,7 +7742,7 @@
         <v>29</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G54" s="18">
         <v>800000</v>
@@ -7667,12 +7751,12 @@
         <v>1</v>
       </c>
       <c r="I54" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B55" s="16">
         <v>45097</v>
@@ -7685,7 +7769,7 @@
         <v>31</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G55" s="18">
         <v>600000</v>
@@ -7699,7 +7783,7 @@
     </row>
     <row r="56" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B56" s="16">
         <v>45166</v>
@@ -7709,10 +7793,10 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G56" s="18">
         <v>300000</v>
@@ -7726,7 +7810,7 @@
     </row>
     <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="11"/>
@@ -7739,7 +7823,7 @@
     </row>
     <row r="58" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="11"/>
@@ -7752,7 +7836,7 @@
     </row>
     <row r="59" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="11"/>
@@ -7765,7 +7849,7 @@
     </row>
     <row r="60" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="11"/>
@@ -7778,7 +7862,7 @@
     </row>
     <row r="61" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="11"/>
@@ -7791,7 +7875,7 @@
     </row>
     <row r="62" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="11"/>
@@ -7804,7 +7888,7 @@
     </row>
     <row r="63" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="11"/>
@@ -7817,7 +7901,7 @@
     </row>
     <row r="64" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="11"/>
@@ -7830,7 +7914,7 @@
     </row>
     <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="11"/>
@@ -7843,7 +7927,7 @@
     </row>
     <row r="66" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="11"/>
@@ -7856,7 +7940,7 @@
     </row>
     <row r="67" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="11"/>
@@ -7869,7 +7953,7 @@
     </row>
     <row r="68" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="11"/>
@@ -7882,7 +7966,7 @@
     </row>
     <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="11"/>
@@ -7895,7 +7979,7 @@
     </row>
     <row r="70" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="11"/>
@@ -7908,7 +7992,7 @@
     </row>
     <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="11"/>
@@ -7921,7 +8005,7 @@
     </row>
     <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="11"/>
@@ -7934,7 +8018,7 @@
     </row>
     <row r="73" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="11"/>
@@ -7947,7 +8031,7 @@
     </row>
     <row r="74" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="11"/>
@@ -7960,7 +8044,7 @@
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="11"/>
@@ -7973,7 +8057,7 @@
     </row>
     <row r="76" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="11"/>
@@ -7986,7 +8070,7 @@
     </row>
     <row r="77" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="11"/>
@@ -7999,7 +8083,7 @@
     </row>
     <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="11"/>
@@ -8012,7 +8096,7 @@
     </row>
     <row r="79" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="11"/>
@@ -8025,7 +8109,7 @@
     </row>
     <row r="80" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="11"/>
@@ -8038,7 +8122,7 @@
     </row>
     <row r="81" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="11"/>
@@ -8051,7 +8135,7 @@
     </row>
     <row r="82" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="11"/>
@@ -8064,7 +8148,7 @@
     </row>
     <row r="83" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="11"/>
@@ -8077,7 +8161,7 @@
     </row>
     <row r="84" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="11"/>
@@ -8090,7 +8174,7 @@
     </row>
     <row r="85" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="11"/>
@@ -8103,7 +8187,7 @@
     </row>
     <row r="86" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="11"/>
@@ -8116,7 +8200,7 @@
     </row>
     <row r="87" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="11"/>
@@ -8129,7 +8213,7 @@
     </row>
     <row r="88" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="11"/>
@@ -8142,7 +8226,7 @@
     </row>
     <row r="89" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="11"/>
@@ -8155,7 +8239,7 @@
     </row>
     <row r="90" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="11"/>
@@ -8168,7 +8252,7 @@
     </row>
     <row r="91" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="11"/>
@@ -8508,13 +8592,13 @@
         <v>35</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>36</v>
@@ -8526,7 +8610,7 @@
         <v>27</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>28</v>
@@ -8563,7 +8647,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B3" s="16">
         <v>44344</v>
@@ -8573,7 +8657,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4">
@@ -8598,10 +8682,10 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="4">
         <v>30000</v>
@@ -8613,7 +8697,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B5" s="16">
         <v>44486</v>
@@ -8623,10 +8707,10 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="4">
         <v>10000</v>
@@ -8638,7 +8722,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="16">
         <v>44557</v>
@@ -8648,10 +8732,10 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="4">
         <v>150000</v>
@@ -8663,7 +8747,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B7" s="16">
         <v>44263</v>
@@ -8676,7 +8760,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G7" s="4">
         <v>400000</v>
@@ -8688,7 +8772,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="16">
         <v>44405</v>
@@ -8698,10 +8782,10 @@
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="4">
         <v>25000</v>
@@ -8713,7 +8797,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B9" s="16">
         <v>44467</v>
@@ -8723,10 +8807,10 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="4">
         <v>30000</v>
@@ -8738,7 +8822,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="16">
         <v>44476</v>
@@ -8748,10 +8832,10 @@
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="4">
         <v>5000</v>
@@ -8763,7 +8847,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B11" s="16">
         <v>44547</v>
@@ -8773,10 +8857,10 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="4">
         <v>12000</v>
@@ -8788,7 +8872,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="16">
         <v>44618</v>
@@ -8798,10 +8882,10 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G12" s="4">
         <v>20000</v>
@@ -8813,7 +8897,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B13" s="16">
         <v>44689</v>
@@ -8823,10 +8907,10 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="4">
         <v>35000</v>
@@ -8838,7 +8922,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="16">
         <v>44760</v>
@@ -8851,7 +8935,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G14" s="4">
         <v>250000</v>
@@ -8863,7 +8947,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B15" s="16">
         <v>44831</v>
@@ -8873,10 +8957,10 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="4">
         <v>8000</v>
@@ -8888,7 +8972,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="16">
         <v>44902</v>
@@ -8898,10 +8982,10 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G16" s="4">
         <v>10000</v>
@@ -8913,7 +8997,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B17" s="16">
         <v>44608</v>
@@ -8923,10 +9007,10 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G17" s="4">
         <v>40000</v>
@@ -8938,7 +9022,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="16">
         <v>44679</v>
@@ -8948,10 +9032,10 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G18" s="4">
         <v>35000</v>
@@ -8963,7 +9047,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B19" s="16">
         <v>44750</v>
@@ -8976,7 +9060,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G19" s="4">
         <v>350000</v>
@@ -8988,7 +9072,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="16">
         <v>44942</v>
@@ -8998,10 +9082,10 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G20" s="4">
         <v>7500</v>
@@ -9013,7 +9097,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B21" s="16">
         <v>45011</v>
@@ -9023,10 +9107,10 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G21" s="4">
         <v>15000</v>
@@ -9038,7 +9122,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="16">
         <v>44567</v>
@@ -9051,7 +9135,7 @@
         <v>38</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G22" s="4">
         <v>1100000</v>
@@ -9063,7 +9147,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B23" s="16">
         <v>44344</v>
@@ -9073,10 +9157,10 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G23" s="4">
         <v>50000</v>
@@ -9088,7 +9172,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="16">
         <v>44851</v>
@@ -9098,10 +9182,10 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" s="4">
         <v>20000</v>
@@ -9113,7 +9197,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B25" s="16">
         <v>44628</v>
@@ -9123,10 +9207,10 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G25" s="4">
         <v>5000</v>
@@ -9138,7 +9222,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B26" s="16">
         <v>44770</v>
@@ -9148,10 +9232,10 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G26" s="4">
         <v>25000</v>
@@ -9163,7 +9247,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B27" s="16">
         <v>44912</v>
@@ -9176,7 +9260,7 @@
         <v>38</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G27" s="4">
         <v>900000</v>
@@ -9188,7 +9272,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="16">
         <v>45054</v>
@@ -9198,10 +9282,10 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G28" s="4">
         <v>40000</v>
@@ -9213,7 +9297,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B29" s="16">
         <v>45196</v>
@@ -9223,10 +9307,10 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G29" s="4">
         <v>8000</v>
@@ -9238,7 +9322,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B30" s="16">
         <v>45338</v>
@@ -9248,10 +9332,10 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G30" s="4">
         <v>15000</v>
@@ -9263,7 +9347,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B31" s="16">
         <v>45480</v>
@@ -9273,10 +9357,10 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G31" s="4">
         <v>20000</v>
@@ -9288,7 +9372,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B32" s="16">
         <v>45622</v>
@@ -9298,10 +9382,10 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G32" s="4">
         <v>50000</v>
@@ -9313,7 +9397,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B33" s="16">
         <v>45764</v>
@@ -9323,10 +9407,10 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G33" s="4">
         <v>12000</v>
@@ -9338,7 +9422,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" s="16">
         <v>45906</v>
@@ -9351,7 +9435,7 @@
         <v>38</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G34" s="4">
         <v>1500000</v>
@@ -9363,7 +9447,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B35" s="16">
         <v>46048</v>
@@ -9373,10 +9457,10 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G35" s="4">
         <v>7000</v>
@@ -9388,7 +9472,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36" s="16">
         <v>46190</v>
@@ -9398,10 +9482,10 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G36" s="4">
         <v>6000</v>
@@ -9413,7 +9497,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B37" s="16">
         <v>46332</v>
@@ -9423,10 +9507,10 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G37" s="4">
         <v>25000</v>
@@ -9438,7 +9522,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" s="16">
         <v>46474</v>
@@ -9448,10 +9532,10 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38" s="4">
         <v>55000</v>
@@ -9463,7 +9547,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B39" s="16">
         <v>46616</v>
@@ -9476,7 +9560,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G39" s="4">
         <v>800000</v>
@@ -9488,7 +9572,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="16">
         <v>46758</v>
@@ -9498,10 +9582,10 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G40" s="4">
         <v>5000</v>
@@ -9513,7 +9597,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B41" s="16">
         <v>46900</v>
@@ -9523,10 +9607,10 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G41" s="4">
         <v>12000</v>
@@ -9756,15 +9840,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>29</v>
@@ -9772,66 +9856,66 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -9854,231 +9938,231 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>119</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -10098,67 +10182,67 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>278</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>310</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -10168,7 +10252,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -10178,7 +10262,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -10188,7 +10272,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -10198,7 +10282,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -10208,7 +10292,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -10218,7 +10302,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
